--- a/Team-Data/2013-14/2-2-2013-14.xlsx
+++ b/Team-Data/2013-14/2-2-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
         <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.327</v>
+        <v>0.313</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.325</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>11.4</v>
@@ -902,43 +969,43 @@
         <v>19.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W3" t="n">
         <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -953,19 +1020,19 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
       </c>
       <c r="AO3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP3" t="n">
         <v>25</v>
       </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>13</v>
@@ -977,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="AU3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
@@ -986,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -995,7 +1062,7 @@
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>22</v>
@@ -1705,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW9" t="n">
         <v>21</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2294,7 @@
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2415,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>0.265</v>
+        <v>0.271</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N23" t="n">
         <v>0.346</v>
@@ -4527,16 +4594,16 @@
         <v>21.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R23" t="n">
         <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
@@ -4551,22 +4618,22 @@
         <v>4.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4593,7 +4660,7 @@
         <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
         <v>22</v>
@@ -4620,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4632,7 +4699,7 @@
         <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
         <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -5297,13 +5364,13 @@
         <v>10</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
         <v>12</v>
@@ -5345,7 +5412,7 @@
         <v>12</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -5900,7 +5967,7 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6116,7 @@
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
         <v>5</v>
@@ -6058,7 +6125,7 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-2-2013-14</t>
+          <t>2014-02-02</t>
         </is>
       </c>
     </row>
